--- a/REGULAR/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/DELA GRACIA, MA. CECILIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086296FA-12CF-43B7-A175-364F52820838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="291">
   <si>
     <t>PERIOD</t>
   </si>
@@ -913,7 +912,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1347,7 +1346,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1422,7 +1420,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1490,7 +1487,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1732,7 +1728,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1780,7 +1775,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1818,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1882,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1942,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2008,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2071,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2169,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2228,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2293,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2336,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2411,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2597,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +2663,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2726,7 +2721,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2787,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2848,7 +2843,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2918,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2961,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,7 +3027,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3088,7 +3083,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3181,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3244,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,25 +3310,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K396" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K396" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3345,13 +3340,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3360,14 +3355,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3671,7 +3666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3681,7 +3676,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3689,34 +3684,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A358" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A358" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B368" sqref="B368"/>
+      <selection pane="bottomLeft" activeCell="B369" sqref="B369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3737,7 +3732,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3755,7 +3750,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3777,7 +3772,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3785,7 +3780,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3798,7 +3793,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3815,7 +3810,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3850,7 +3845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3859,7 +3854,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>51.925999999999945</v>
+        <v>53.175999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3869,12 +3864,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>178.25</v>
+        <v>179.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3894,7 +3889,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>45</v>
       </c>
@@ -3912,7 +3907,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>39083</v>
       </c>
@@ -3936,7 +3931,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>39114</v>
       </c>
@@ -3960,7 +3955,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>39142</v>
       </c>
@@ -3984,7 +3979,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>39173</v>
       </c>
@@ -4008,7 +4003,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>39203</v>
       </c>
@@ -4032,7 +4027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="15" t="s">
         <v>53</v>
@@ -4052,7 +4047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="15" t="s">
         <v>53</v>
@@ -4072,7 +4067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
         <v>57</v>
@@ -4092,7 +4087,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>39234</v>
       </c>
@@ -4116,7 +4111,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>39264</v>
       </c>
@@ -4142,7 +4137,7 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>60</v>
@@ -4162,7 +4157,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>61</v>
@@ -4184,7 +4179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>63</v>
@@ -4204,7 +4199,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="48"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>39295</v>
       </c>
@@ -4228,7 +4223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>67</v>
@@ -4248,7 +4243,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>39326</v>
       </c>
@@ -4272,7 +4267,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>39356</v>
       </c>
@@ -4296,7 +4291,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>39387</v>
       </c>
@@ -4322,7 +4317,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>59</v>
@@ -4344,7 +4339,7 @@
         <v>39409</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>72</v>
@@ -4364,7 +4359,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>39417</v>
       </c>
@@ -4388,7 +4383,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>47</v>
       </c>
@@ -4406,7 +4401,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>39448</v>
       </c>
@@ -4430,7 +4425,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>39479</v>
       </c>
@@ -4454,7 +4449,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>39508</v>
       </c>
@@ -4478,7 +4473,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>39539</v>
       </c>
@@ -4502,7 +4497,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>39569</v>
       </c>
@@ -4528,7 +4523,7 @@
         <v>39243</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>79</v>
@@ -4548,7 +4543,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>39600</v>
       </c>
@@ -4572,7 +4567,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>39630</v>
       </c>
@@ -4598,7 +4593,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>53</v>
@@ -4618,7 +4613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>83</v>
@@ -4638,7 +4633,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>39661</v>
       </c>
@@ -4664,7 +4659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>85</v>
@@ -4684,7 +4679,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>39692</v>
       </c>
@@ -4708,7 +4703,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>53</v>
@@ -4728,7 +4723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>60</v>
@@ -4748,7 +4743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>64</v>
@@ -4768,7 +4763,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>90</v>
@@ -4788,7 +4783,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>39722</v>
       </c>
@@ -4812,7 +4807,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>39753</v>
       </c>
@@ -4836,7 +4831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>93</v>
@@ -4854,7 +4849,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>60</v>
@@ -4874,7 +4869,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>95</v>
@@ -4894,7 +4889,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>39783</v>
       </c>
@@ -4918,7 +4913,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>48</v>
       </c>
@@ -4936,7 +4931,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>39814</v>
       </c>
@@ -4960,7 +4955,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>39845</v>
       </c>
@@ -4984,7 +4979,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>53</v>
@@ -5004,7 +4999,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>64</v>
@@ -5024,7 +5019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>53</v>
@@ -5044,7 +5039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>64</v>
@@ -5064,7 +5059,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>60</v>
@@ -5084,7 +5079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>104</v>
@@ -5104,7 +5099,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>39873</v>
       </c>
@@ -5128,7 +5123,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>39904</v>
       </c>
@@ -5152,7 +5147,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>39934</v>
       </c>
@@ -5176,7 +5171,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>39965</v>
       </c>
@@ -5200,7 +5195,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>39995</v>
       </c>
@@ -5224,7 +5219,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>40026</v>
       </c>
@@ -5248,7 +5243,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>40057</v>
       </c>
@@ -5272,7 +5267,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>40087</v>
       </c>
@@ -5296,7 +5291,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>40118</v>
       </c>
@@ -5320,7 +5315,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>40148</v>
       </c>
@@ -5344,7 +5339,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>114</v>
       </c>
@@ -5362,7 +5357,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>40179</v>
       </c>
@@ -5386,7 +5381,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>40210</v>
       </c>
@@ -5410,7 +5405,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>40238</v>
       </c>
@@ -5434,7 +5429,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>40269</v>
       </c>
@@ -5458,7 +5453,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>40299</v>
       </c>
@@ -5482,7 +5477,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>40330</v>
       </c>
@@ -5506,7 +5501,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>40360</v>
       </c>
@@ -5530,7 +5525,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>40391</v>
       </c>
@@ -5554,7 +5549,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>40422</v>
       </c>
@@ -5578,7 +5573,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>40452</v>
       </c>
@@ -5602,7 +5597,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>40483</v>
       </c>
@@ -5626,7 +5621,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>40513</v>
       </c>
@@ -5650,7 +5645,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>117</v>
       </c>
@@ -5668,7 +5663,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>40544</v>
       </c>
@@ -5692,7 +5687,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>40575</v>
       </c>
@@ -5716,7 +5711,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>40603</v>
       </c>
@@ -5740,7 +5735,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>40634</v>
       </c>
@@ -5764,7 +5759,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>40664</v>
       </c>
@@ -5788,7 +5783,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>40695</v>
       </c>
@@ -5808,7 +5803,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>40725</v>
       </c>
@@ -5828,7 +5823,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>40756</v>
       </c>
@@ -5848,7 +5843,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>40787</v>
       </c>
@@ -5868,7 +5863,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>40817</v>
       </c>
@@ -5892,7 +5887,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>40848</v>
       </c>
@@ -5918,7 +5913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>53</v>
@@ -5938,7 +5933,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>137</v>
@@ -5958,7 +5953,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>40878</v>
       </c>
@@ -5984,7 +5979,7 @@
         <v>40906</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>53</v>
@@ -6004,7 +5999,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>53</v>
@@ -6024,7 +6019,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>140</v>
@@ -6044,7 +6039,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
         <v>134</v>
       </c>
@@ -6062,7 +6057,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>40909</v>
       </c>
@@ -6086,7 +6081,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>53</v>
@@ -6106,7 +6101,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>143</v>
@@ -6126,7 +6121,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>40940</v>
       </c>
@@ -6152,7 +6147,7 @@
         <v>40963</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>144</v>
@@ -6172,7 +6167,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="48"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>40969</v>
       </c>
@@ -6196,7 +6191,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>41000</v>
       </c>
@@ -6220,7 +6215,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>53</v>
@@ -6240,7 +6235,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>145</v>
@@ -6260,7 +6255,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>41030</v>
       </c>
@@ -6284,7 +6279,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>41061</v>
       </c>
@@ -6308,7 +6303,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>41091</v>
       </c>
@@ -6334,7 +6329,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>152</v>
@@ -6354,7 +6349,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>41122</v>
       </c>
@@ -6380,7 +6375,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>154</v>
@@ -6400,7 +6395,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>41153</v>
       </c>
@@ -6426,7 +6421,7 @@
         <v>41173</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>155</v>
@@ -6448,7 +6443,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>157</v>
@@ -6470,7 +6465,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>159</v>
@@ -6488,7 +6483,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="48"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>41183</v>
       </c>
@@ -6512,7 +6507,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>41214</v>
       </c>
@@ -6536,7 +6531,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>41244</v>
       </c>
@@ -6562,7 +6557,7 @@
         <v>41249</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>59</v>
@@ -6584,7 +6579,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>162</v>
@@ -6604,7 +6599,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="48"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="47" t="s">
         <v>163</v>
       </c>
@@ -6622,7 +6617,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="48"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>41275</v>
       </c>
@@ -6646,7 +6641,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>41306</v>
       </c>
@@ -6672,7 +6667,7 @@
         <v>41312</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>59</v>
@@ -6694,7 +6689,7 @@
         <v>41316</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>165</v>
@@ -6714,7 +6709,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="48"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>41334</v>
       </c>
@@ -6738,7 +6733,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>41365</v>
       </c>
@@ -6764,7 +6759,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>53</v>
@@ -6784,7 +6779,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>169</v>
@@ -6804,7 +6799,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>41395</v>
       </c>
@@ -6830,7 +6825,7 @@
         <v>41409</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>59</v>
@@ -6852,7 +6847,7 @@
         <v>41411</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>53</v>
@@ -6872,7 +6867,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>157</v>
@@ -6894,7 +6889,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>172</v>
@@ -6914,7 +6909,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="48"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>41426</v>
       </c>
@@ -6938,7 +6933,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>41456</v>
       </c>
@@ -6964,7 +6959,7 @@
         <v>41467</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>174</v>
@@ -6984,7 +6979,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="48"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>41487</v>
       </c>
@@ -7008,7 +7003,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>176</v>
@@ -7028,7 +7023,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>41518</v>
       </c>
@@ -7052,7 +7047,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>41548</v>
       </c>
@@ -7076,7 +7071,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>41579</v>
       </c>
@@ -7102,7 +7097,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>41609</v>
       </c>
@@ -7126,7 +7121,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>78</v>
@@ -7146,7 +7141,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
         <v>180</v>
       </c>
@@ -7164,7 +7159,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>41640</v>
       </c>
@@ -7188,7 +7183,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>41671</v>
       </c>
@@ -7214,7 +7209,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>59</v>
@@ -7236,7 +7231,7 @@
         <v>41695</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>59</v>
@@ -7258,7 +7253,7 @@
         <v>41703</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>184</v>
@@ -7278,7 +7273,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>41699</v>
       </c>
@@ -7304,7 +7299,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>186</v>
@@ -7324,7 +7319,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>41730</v>
       </c>
@@ -7348,7 +7343,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>41760</v>
       </c>
@@ -7374,7 +7369,7 @@
         <v>41788</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>188</v>
@@ -7394,7 +7389,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="48"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>41791</v>
       </c>
@@ -7420,7 +7415,7 @@
         <v>41813</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>189</v>
@@ -7440,7 +7435,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="48"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>41821</v>
       </c>
@@ -7466,7 +7461,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>59</v>
@@ -7488,7 +7483,7 @@
         <v>41848</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>59</v>
@@ -7508,7 +7503,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="48"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>59</v>
@@ -7530,7 +7525,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>190</v>
@@ -7550,7 +7545,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="48"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>41852</v>
       </c>
@@ -7576,7 +7571,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>191</v>
@@ -7598,7 +7593,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>194</v>
@@ -7618,7 +7613,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>41883</v>
       </c>
@@ -7644,7 +7639,7 @@
         <v>41887</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>195</v>
@@ -7664,7 +7659,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="48"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>41913</v>
       </c>
@@ -7690,7 +7685,7 @@
         <v>41921</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>59</v>
@@ -7712,7 +7707,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>157</v>
@@ -7734,7 +7729,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>197</v>
@@ -7754,7 +7749,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="48"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>41944</v>
       </c>
@@ -7778,7 +7773,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>53</v>
@@ -7798,7 +7793,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>200</v>
@@ -7818,7 +7813,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>41974</v>
       </c>
@@ -7842,7 +7837,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
         <v>202</v>
       </c>
@@ -7860,7 +7855,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>42005</v>
       </c>
@@ -7884,7 +7879,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>42036</v>
       </c>
@@ -7908,7 +7903,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>59</v>
@@ -7930,7 +7925,7 @@
         <v>42045</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>205</v>
@@ -7950,7 +7945,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>42064</v>
       </c>
@@ -7976,7 +7971,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>207</v>
@@ -7996,7 +7991,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="48"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>42095</v>
       </c>
@@ -8022,7 +8017,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>59</v>
@@ -8044,7 +8039,7 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>59</v>
@@ -8066,7 +8061,7 @@
         <v>42098</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>209</v>
@@ -8086,7 +8081,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>42125</v>
       </c>
@@ -8112,7 +8107,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>67</v>
@@ -8132,7 +8127,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>42156</v>
       </c>
@@ -8158,7 +8153,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>157</v>
@@ -8180,7 +8175,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>59</v>
@@ -8202,7 +8197,7 @@
         <v>42178</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>212</v>
@@ -8222,7 +8217,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="48"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>42186</v>
       </c>
@@ -8246,7 +8241,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>42217</v>
       </c>
@@ -8272,7 +8267,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>59</v>
@@ -8294,7 +8289,7 @@
         <v>42234</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>59</v>
@@ -8316,7 +8311,7 @@
         <v>42242</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>59</v>
@@ -8338,7 +8333,7 @@
         <v>42244</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>214</v>
@@ -8358,7 +8353,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="48"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>42248</v>
       </c>
@@ -8382,7 +8377,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>42278</v>
       </c>
@@ -8408,7 +8403,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>215</v>
@@ -8428,7 +8423,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="48"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>42309</v>
       </c>
@@ -8452,7 +8447,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>217</v>
@@ -8472,7 +8467,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>42339</v>
       </c>
@@ -8496,7 +8491,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>59</v>
@@ -8518,7 +8513,7 @@
         <v>42354</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>219</v>
@@ -8538,7 +8533,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="48"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="47" t="s">
         <v>216</v>
       </c>
@@ -8556,7 +8551,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>42370</v>
       </c>
@@ -8578,7 +8573,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>220</v>
@@ -8598,7 +8593,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>42401</v>
       </c>
@@ -8624,7 +8619,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>53</v>
@@ -8644,7 +8639,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>191</v>
@@ -8666,7 +8661,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>224</v>
@@ -8686,7 +8681,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>42430</v>
       </c>
@@ -8710,7 +8705,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>42461</v>
       </c>
@@ -8734,7 +8729,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>42491</v>
       </c>
@@ -8758,7 +8753,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>42522</v>
       </c>
@@ -8782,7 +8777,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>42552</v>
       </c>
@@ -8806,7 +8801,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>42583</v>
       </c>
@@ -8830,7 +8825,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>59</v>
@@ -8852,7 +8847,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>231</v>
@@ -8872,7 +8867,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>42614</v>
       </c>
@@ -8898,7 +8893,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>59</v>
@@ -8920,7 +8915,7 @@
         <v>42648</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>233</v>
@@ -8940,7 +8935,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="48"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>42644</v>
       </c>
@@ -8966,7 +8961,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="15" t="s">
         <v>59</v>
@@ -8988,7 +8983,7 @@
         <v>42650</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="15" t="s">
         <v>157</v>
@@ -9010,7 +9005,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="15" t="s">
         <v>59</v>
@@ -9032,7 +9027,7 @@
         <v>42646</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="15" t="s">
         <v>119</v>
@@ -9052,7 +9047,7 @@
       <c r="J240" s="12"/>
       <c r="K240" s="49"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>42675</v>
       </c>
@@ -9078,7 +9073,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="15" t="s">
         <v>235</v>
@@ -9098,7 +9093,7 @@
       <c r="J242" s="12"/>
       <c r="K242" s="49"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>42705</v>
       </c>
@@ -9124,7 +9119,7 @@
         <v>42719</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>236</v>
@@ -9144,7 +9139,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="48"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="47" t="s">
         <v>237</v>
       </c>
@@ -9162,7 +9157,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="48"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>42736</v>
       </c>
@@ -9186,7 +9181,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>42767</v>
       </c>
@@ -9210,7 +9205,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>42795</v>
       </c>
@@ -9234,7 +9229,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>42826</v>
       </c>
@@ -9260,7 +9255,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>155</v>
@@ -9282,7 +9277,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>59</v>
@@ -9304,7 +9299,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>59</v>
@@ -9326,7 +9321,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>241</v>
@@ -9346,7 +9341,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="48"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42856</v>
       </c>
@@ -9370,7 +9365,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>42887</v>
       </c>
@@ -9396,7 +9391,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>246</v>
@@ -9416,7 +9411,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42917</v>
       </c>
@@ -9442,7 +9437,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>248</v>
@@ -9462,7 +9457,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42948</v>
       </c>
@@ -9486,7 +9481,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>250</v>
@@ -9506,7 +9501,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42979</v>
       </c>
@@ -9530,7 +9525,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>59</v>
@@ -9552,7 +9547,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43009</v>
       </c>
@@ -9576,7 +9571,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>59</v>
@@ -9598,7 +9593,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>43040</v>
       </c>
@@ -9618,7 +9613,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>43070</v>
       </c>
@@ -9644,7 +9639,7 @@
         <v>42708</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>53</v>
@@ -9664,7 +9659,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="47" t="s">
         <v>254</v>
       </c>
@@ -9682,7 +9677,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="48"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>43101</v>
       </c>
@@ -9708,7 +9703,7 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>53</v>
@@ -9728,7 +9723,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>43132</v>
       </c>
@@ -9754,7 +9749,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>59</v>
@@ -9776,7 +9771,7 @@
         <v>43145</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>59</v>
@@ -9798,7 +9793,7 @@
         <v>43139</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>59</v>
@@ -9820,7 +9815,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>43160</v>
       </c>
@@ -9840,7 +9835,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>43191</v>
       </c>
@@ -9860,7 +9855,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>43221</v>
       </c>
@@ -9884,7 +9879,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>43252</v>
       </c>
@@ -9910,7 +9905,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>257</v>
@@ -9930,7 +9925,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="48"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43282</v>
       </c>
@@ -9954,7 +9949,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>43313</v>
       </c>
@@ -9980,7 +9975,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>53</v>
@@ -10000,7 +9995,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>262</v>
@@ -10020,7 +10015,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>43344</v>
       </c>
@@ -10044,7 +10039,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>59</v>
@@ -10066,7 +10061,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>59</v>
@@ -10088,7 +10083,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>264</v>
@@ -10108,7 +10103,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43374</v>
       </c>
@@ -10134,7 +10129,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>266</v>
@@ -10154,7 +10149,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>43405</v>
       </c>
@@ -10180,7 +10175,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>267</v>
@@ -10200,7 +10195,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="48"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>43435</v>
       </c>
@@ -10224,7 +10219,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="47" t="s">
         <v>269</v>
       </c>
@@ -10242,7 +10237,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43466</v>
       </c>
@@ -10262,7 +10257,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43497</v>
       </c>
@@ -10282,7 +10277,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>43525</v>
       </c>
@@ -10302,7 +10297,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43556</v>
       </c>
@@ -10322,7 +10317,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43586</v>
       </c>
@@ -10348,7 +10343,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>53</v>
@@ -10368,7 +10363,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>273</v>
@@ -10388,7 +10383,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>43617</v>
       </c>
@@ -10414,7 +10409,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>43647</v>
       </c>
@@ -10440,7 +10435,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>43678</v>
       </c>
@@ -10460,7 +10455,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43709</v>
       </c>
@@ -10480,7 +10475,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43739</v>
       </c>
@@ -10506,7 +10501,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>43770</v>
       </c>
@@ -10532,7 +10527,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>206</v>
@@ -10554,7 +10549,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>155</v>
@@ -10576,7 +10571,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43800</v>
       </c>
@@ -10602,7 +10597,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="47" t="s">
         <v>277</v>
       </c>
@@ -10620,7 +10615,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="48"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43831</v>
       </c>
@@ -10646,7 +10641,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>278</v>
@@ -10666,7 +10661,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43862</v>
       </c>
@@ -10686,7 +10681,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43891</v>
       </c>
@@ -10706,7 +10701,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43922</v>
       </c>
@@ -10726,7 +10721,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43952</v>
       </c>
@@ -10746,7 +10741,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43983</v>
       </c>
@@ -10766,7 +10761,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>44013</v>
       </c>
@@ -10790,7 +10785,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>44044</v>
       </c>
@@ -10810,7 +10805,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>44075</v>
       </c>
@@ -10836,7 +10831,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>191</v>
@@ -10858,7 +10853,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>157</v>
@@ -10880,7 +10875,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>44105</v>
       </c>
@@ -10900,7 +10895,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>44136</v>
       </c>
@@ -10920,7 +10915,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>44166</v>
       </c>
@@ -10946,7 +10941,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="47" t="s">
         <v>283</v>
       </c>
@@ -10964,7 +10959,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="48"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>44197</v>
       </c>
@@ -10984,7 +10979,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>44228</v>
       </c>
@@ -11004,7 +10999,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>44256</v>
       </c>
@@ -11024,7 +11019,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>44287</v>
       </c>
@@ -11044,7 +11039,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>44317</v>
       </c>
@@ -11064,7 +11059,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44348</v>
       </c>
@@ -11090,7 +11085,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>273</v>
@@ -11110,7 +11105,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>44378</v>
       </c>
@@ -11136,7 +11131,7 @@
         <v>44396</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>155</v>
@@ -11156,7 +11151,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="48"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>44409</v>
       </c>
@@ -11176,7 +11171,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44440</v>
       </c>
@@ -11196,7 +11191,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44470</v>
       </c>
@@ -11222,7 +11217,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44501</v>
       </c>
@@ -11246,7 +11241,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>206</v>
@@ -11268,7 +11263,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>206</v>
@@ -11290,7 +11285,7 @@
         <v>44551</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>44531</v>
       </c>
@@ -11310,7 +11305,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="47" t="s">
         <v>287</v>
       </c>
@@ -11328,7 +11323,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44562</v>
       </c>
@@ -11348,7 +11343,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44593</v>
       </c>
@@ -11368,7 +11363,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>44621</v>
       </c>
@@ -11388,7 +11383,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44652</v>
       </c>
@@ -11408,7 +11403,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44682</v>
       </c>
@@ -11428,7 +11423,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44713</v>
       </c>
@@ -11452,7 +11447,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>53</v>
@@ -11472,7 +11467,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>59</v>
@@ -11494,7 +11489,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>59</v>
@@ -11516,7 +11511,7 @@
         <v>44353</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>59</v>
@@ -11538,7 +11533,7 @@
         <v>44363</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44743</v>
       </c>
@@ -11564,7 +11559,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44774</v>
       </c>
@@ -11590,7 +11585,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44805</v>
       </c>
@@ -11616,7 +11611,7 @@
         <v>44444</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44835</v>
       </c>
@@ -11640,7 +11635,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44866</v>
       </c>
@@ -11664,7 +11659,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>61</v>
@@ -11686,7 +11681,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44896</v>
       </c>
@@ -11712,7 +11707,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>206</v>
@@ -11734,7 +11729,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>59</v>
@@ -11756,7 +11751,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>59</v>
@@ -11778,7 +11773,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="47" t="s">
         <v>46</v>
       </c>
@@ -11796,7 +11791,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44927</v>
       </c>
@@ -11816,7 +11811,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44958</v>
       </c>
@@ -11842,7 +11837,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>53</v>
@@ -11862,25 +11857,31 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44986</v>
       </c>
-      <c r="B368" s="20"/>
-      <c r="C368" s="13"/>
+      <c r="B368" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C368" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D368" s="39"/>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G368" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
-      <c r="K368" s="20"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K368" s="48">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>45017</v>
       </c>
@@ -11898,7 +11899,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>45047</v>
       </c>
@@ -11916,7 +11917,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>45078</v>
       </c>
@@ -11934,7 +11935,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>45108</v>
       </c>
@@ -11952,7 +11953,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>45139</v>
       </c>
@@ -11970,7 +11971,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>45170</v>
       </c>
@@ -11988,7 +11989,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>45200</v>
       </c>
@@ -12006,7 +12007,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>45231</v>
       </c>
@@ -12024,7 +12025,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>45261</v>
       </c>
@@ -12042,7 +12043,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>45292</v>
       </c>
@@ -12060,7 +12061,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>45323</v>
       </c>
@@ -12078,7 +12079,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>45352</v>
       </c>
@@ -12096,7 +12097,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>45383</v>
       </c>
@@ -12114,7 +12115,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>45413</v>
       </c>
@@ -12132,7 +12133,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>45444</v>
       </c>
@@ -12150,7 +12151,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>45474</v>
       </c>
@@ -12168,7 +12169,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>45505</v>
       </c>
@@ -12186,7 +12187,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>45536</v>
       </c>
@@ -12204,7 +12205,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>45566</v>
       </c>
@@ -12222,7 +12223,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>45597</v>
       </c>
@@ -12240,7 +12241,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>45627</v>
       </c>
@@ -12258,7 +12259,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -12274,7 +12275,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -12290,7 +12291,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -12306,7 +12307,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -12322,7 +12323,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -12338,7 +12339,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -12354,7 +12355,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -12385,10 +12386,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12411,7 +12412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12419,21 +12420,21 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -12446,7 +12447,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12475,7 +12476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>59.924999999999997</v>
       </c>
@@ -12503,17 +12504,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12534,7 +12535,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12561,7 +12562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12587,7 +12588,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12639,7 +12640,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12665,7 +12666,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12691,7 +12692,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12717,7 +12718,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12743,7 +12744,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12783,7 +12784,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12803,7 +12804,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12824,7 +12825,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12845,7 +12846,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12866,7 +12867,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12887,7 +12888,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12950,7 +12951,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12971,7 +12972,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12992,7 +12993,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13013,7 +13014,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13034,7 +13035,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13055,7 +13056,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13076,7 +13077,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13097,7 +13098,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13160,7 +13161,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13181,7 +13182,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13202,7 +13203,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13223,7 +13224,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13232,7 +13233,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13241,7 +13242,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13250,7 +13251,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13259,7 +13260,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13268,7 +13269,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13277,7 +13278,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13286,7 +13287,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13295,7 +13296,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13304,7 +13305,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13313,7 +13314,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13322,7 +13323,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13331,7 +13332,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13340,7 +13341,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13349,7 +13350,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13358,7 +13359,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13367,7 +13368,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13376,7 +13377,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13385,7 +13386,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13394,7 +13395,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13403,7 +13404,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13412,7 +13413,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13421,7 +13422,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13430,7 +13431,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13439,7 +13440,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13448,7 +13449,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13457,7 +13458,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13466,7 +13467,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13475,7 +13476,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13484,7 +13485,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/DELA GRACIA, MA. CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="291">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3693,7 +3693,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A358" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B369" sqref="B369"/>
+      <selection pane="bottomLeft" activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11885,7 +11885,9 @@
       <c r="A369" s="40">
         <v>45017</v>
       </c>
-      <c r="B369" s="20"/>
+      <c r="B369" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C369" s="13"/>
       <c r="D369" s="39"/>
       <c r="E369" s="9"/>
@@ -11897,7 +11899,9 @@
       <c r="H369" s="39"/>
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
-      <c r="K369" s="20"/>
+      <c r="K369" s="48">
+        <v>45028</v>
+      </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">

--- a/REGULAR/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/DELA GRACIA, MA. CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="291">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1775,7 +1775,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1818,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1882,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1942,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2008,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2071,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2169,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2228,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2293,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2336,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2411,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2597,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2663,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2721,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2787,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2843,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2918,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,7 +2961,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3027,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3083,7 +3083,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,7 +3181,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3244,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3691,9 +3691,9 @@
   <dimension ref="A2:K396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A358" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A358" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B370" sqref="B370"/>
+      <selection pane="bottomLeft" activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,7 +3854,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>53.175999999999945</v>
+        <v>54.425999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3864,7 +3864,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>179.5</v>
+        <v>179.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11888,13 +11888,15 @@
       <c r="B369" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C369" s="13"/>
+      <c r="C369" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D369" s="39"/>
       <c r="E369" s="9"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G369" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H369" s="39"/>
       <c r="I369" s="9"/>
@@ -11907,7 +11909,9 @@
       <c r="A370" s="40">
         <v>45047</v>
       </c>
-      <c r="B370" s="20"/>
+      <c r="B370" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C370" s="13"/>
       <c r="D370" s="39"/>
       <c r="E370" s="9"/>
@@ -11916,10 +11920,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H370" s="39"/>
+      <c r="H370" s="39">
+        <v>1</v>
+      </c>
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
-      <c r="K370" s="20"/>
+      <c r="K370" s="48">
+        <v>45044</v>
+      </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">

--- a/REGULAR/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/DELA GRACIA, MA. CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="291">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1775,7 +1775,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1818,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1882,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1942,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2008,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2071,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2169,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2228,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2293,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2336,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2411,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2597,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2663,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2721,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2787,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2843,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2918,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,7 +2961,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3027,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3083,7 +3083,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,7 +3181,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3244,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3693,7 +3693,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A358" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B371" sqref="B371"/>
+      <selection pane="bottomLeft" activeCell="K372" sqref="K372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,7 +3854,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>54.425999999999945</v>
+        <v>55.675999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3864,7 +3864,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>179.75</v>
+        <v>180</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11912,13 +11912,15 @@
       <c r="B370" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C370" s="13"/>
+      <c r="C370" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D370" s="39"/>
       <c r="E370" s="9"/>
       <c r="F370" s="20"/>
-      <c r="G370" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G370" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H370" s="39">
         <v>1</v>
@@ -11933,7 +11935,9 @@
       <c r="A371" s="40">
         <v>45078</v>
       </c>
-      <c r="B371" s="20"/>
+      <c r="B371" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C371" s="13"/>
       <c r="D371" s="39"/>
       <c r="E371" s="9"/>
@@ -11942,10 +11946,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H371" s="39"/>
+      <c r="H371" s="39">
+        <v>1</v>
+      </c>
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
-      <c r="K371" s="20"/>
+      <c r="K371" s="48">
+        <v>45092</v>
+      </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
